--- a/Docs/Planning/JournalEtPlanification.xlsx
+++ b/Docs/Planning/JournalEtPlanification.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\Docs\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA19941-1A63-4DFB-8816-C41446558766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A013814-39A2-44A8-9A5C-802169AC8C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
+    <sheet name="Luca" sheetId="2" r:id="rId2"/>
+    <sheet name="Filipe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>1ère itération</t>
   </si>
@@ -135,6 +137,18 @@
   </si>
   <si>
     <t>Tests de fonctionnements (tout le projet)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tâche</t>
+  </si>
+  <si>
+    <t>Périodes</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -179,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -202,19 +216,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,26 +620,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -584,16 +708,16 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -644,19 +768,19 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -693,12 +817,12 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27">
@@ -706,7 +830,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28">
@@ -714,7 +838,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>22</v>
       </c>
       <c r="B29">
@@ -722,7 +846,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30">
@@ -730,7 +854,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31">
@@ -738,12 +862,12 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
@@ -751,7 +875,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34">
@@ -759,7 +883,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" t="s">
         <v>10</v>
       </c>
       <c r="B35">
@@ -767,24 +891,24 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
       <c r="B39">
@@ -792,7 +916,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
       <c r="B40">
@@ -800,7 +924,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" t="s">
         <v>30</v>
       </c>
       <c r="B41">
@@ -845,4 +969,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190B2B07-04BB-4DFD-8FEC-4A190C1B9544}">
+  <dimension ref="A4:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45048</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45041</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45048</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45071</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45047</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14">
+        <f>SUM(D6:D10)</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AD0B995-65D0-47A6-B1F4-DAA403E54CE4}">
+          <x14:formula1>
+            <xm:f>Planification!$A$3:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>A6:A19</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2010442F-D6E3-463B-9370-F96A18B36A25}">
+  <dimension ref="A4:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>45041</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45048</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>45047</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>45048</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14">
+        <f>SUM(D6:D10)</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A0284C6-9C92-478E-96AE-D08B9D74530A}">
+          <x14:formula1>
+            <xm:f>Planification!$A$3:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>A6:A18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Docs/Planning/JournalEtPlanification.xlsx
+++ b/Docs/Planning/JournalEtPlanification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\Docs\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\LAJF\Docs\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA19941-1A63-4DFB-8816-C41446558766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EE500-F6B3-4A86-B7D0-95474AFE94C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>1ère itération</t>
   </si>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t>Tests de fonctionnements (tout le projet)</t>
+  </si>
+  <si>
+    <t>Modification 1ère itrération</t>
+  </si>
+  <si>
+    <t>Modification 3ère itrération</t>
+  </si>
+  <si>
+    <t>4ème itération</t>
+  </si>
+  <si>
+    <t>Modification 2ère itrération</t>
   </si>
 </sst>
 </file>
@@ -207,14 +219,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,16 +518,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
+        <f>SUM(B3:B10)</f>
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -584,44 +595,45 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>40</v>
+      <c r="B11" s="2">
+        <f>SUM(B13:B19)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -629,218 +641,244 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="B18">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2">
+        <f>SUM(B22:B37)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B31">
+      <c r="B33">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>25</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2">
+        <f>SUM(B40:B47)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
+      <c r="B47">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planning/JournalEtPlanification.xlsx
+++ b/Docs/Planning/JournalEtPlanification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\LAJF\Docs\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7EE500-F6B3-4A86-B7D0-95474AFE94C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626D222-AD3A-4AA7-9A6B-28E49892DA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>1ère itération</t>
   </si>
@@ -147,6 +147,21 @@
   </si>
   <si>
     <t>Modification 2ère itrération</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Filipe</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Avancement Itération 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -191,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -212,6 +227,223 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -219,10 +451,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,368 +812,653 @@
     <col min="1" max="1" width="88.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="4">
         <f>SUM(B3:B10)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="22">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="22">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="22">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="22">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="22">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="24">
+        <f>SUM(C3:E10)</f>
+        <v>20</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19">
+        <f>SUM(F3:H10)</f>
+        <v>22</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <f>SUM(B13:B19)</f>
+      <c r="B12" s="4">
+        <f>SUM(B14:B20)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="22">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" s="22">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" s="22">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="22">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="22">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="24">
+        <f>SUM(C12:E20)</f>
+        <v>25</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19">
+        <f>SUM(F12:H20)</f>
+        <v>24</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="25"/>
+      <c r="K22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
-        <f>SUM(B22:B37)</f>
+      <c r="B23" s="4">
+        <f>SUM(B25:B40)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B27" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B25">
+      <c r="B28" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B29" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B30" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B29">
+      <c r="B32" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B30">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B31">
+      <c r="B34" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B32">
+      <c r="B35" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33">
+      <c r="B36" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B35">
+      <c r="B38" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B36">
+      <c r="B39" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B37">
+      <c r="B40" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="2">
-        <f>SUM(B40:B47)</f>
+      <c r="B41" s="4">
+        <f>SUM(B43:B50)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B43" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B42">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B43">
+      <c r="B46" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B44">
+      <c r="B47" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B45">
+      <c r="B48" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B46">
+      <c r="B49" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B47">
+      <c r="B50" s="6">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
+  <mergeCells count="52">
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planning/JournalEtPlanification.xlsx
+++ b/Docs/Planning/JournalEtPlanification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\LAJF\Docs\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F626D222-AD3A-4AA7-9A6B-28E49892DA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6CD871-EE3D-4581-ADB5-9448AC1BBE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>1ère itération</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>repoussé</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -442,6 +451,130 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -451,75 +584,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,630 +988,883 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="23">
         <f>SUM(B3:B10)</f>
         <v>40</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="23"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="23"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>12</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="24">
+      <c r="B11" s="21"/>
+      <c r="C11" s="27">
         <f>SUM(C3:E10)</f>
         <v>20</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19">
+      <c r="D11" s="28"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="28">
         <f>SUM(F3:H10)</f>
         <v>22</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="23">
         <f>SUM(B14:B20)</f>
         <v>44</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="23"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="23"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="23"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <v>8</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="24">
+      <c r="B22" s="21"/>
+      <c r="C22" s="27">
         <f>SUM(C12:E20)</f>
         <v>25</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19">
+      <c r="D22" s="28"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="28">
         <f>SUM(F12:H20)</f>
         <v>24</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="K22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="23">
         <f>SUM(B25:B40)</f>
         <v>60</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="39">
         <v>4</v>
       </c>
+      <c r="C25" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="1">
         <v>7</v>
       </c>
+      <c r="C27" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="1">
         <v>5</v>
       </c>
+      <c r="C28" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="1">
         <v>2</v>
       </c>
+      <c r="C29" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="1">
         <v>2</v>
       </c>
+      <c r="C30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21"/>
+      <c r="C41" s="6">
+        <f>SUM(C31:E39)</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7">
+        <f>SUM(F31:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="4">
-        <f>SUM(B43:B50)</f>
+      <c r="B42" s="23">
+        <f>SUM(B44:B51)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B44" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B46" s="30">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B47" s="30">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B48" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B49" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B50" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B51" s="30">
         <v>10</v>
       </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="21"/>
+      <c r="C52" s="27">
+        <f>SUM(C42:E50)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="28">
+        <f>SUM(F42:H50)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
+  <mergeCells count="108">
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="F42:H43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C1:E2"/>
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="A11:B11"/>
@@ -1450,15 +1878,36 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planning/JournalEtPlanification.xlsx
+++ b/Docs/Planning/JournalEtPlanification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\LAJF\Docs\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\Docs\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6CD871-EE3D-4581-ADB5-9448AC1BBE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF834B-020D-4854-89C1-09D00E3259F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,10 +584,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,6 +598,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,6 +667,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,74 +691,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,33 +984,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="31">
         <f>SUM(B3:B10)</f>
         <v>40</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1023,16 +1019,16 @@
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1041,16 +1037,16 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1059,14 +1055,14 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1075,14 +1071,14 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1091,14 +1087,14 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1107,16 +1103,16 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1125,14 +1121,14 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1141,61 +1137,61 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>12</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="27">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12">
         <f>SUM(C3:E10)</f>
         <v>20</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="28">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13">
         <f>SUM(F3:H10)</f>
         <v>22</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="31">
         <f>SUM(B14:B20)</f>
         <v>44</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1204,16 +1200,16 @@
       <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1222,14 +1218,14 @@
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1238,14 +1234,14 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1254,14 +1250,14 @@
       <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1270,14 +1266,14 @@
       <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
         <v>8</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1286,16 +1282,16 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
         <v>11</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1304,16 +1300,16 @@
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5">
         <v>4</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1322,96 +1318,96 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5">
         <v>4</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="27">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12">
         <f>SUM(C12:E20)</f>
         <v>25</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="28">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="13">
         <f>SUM(F12:H20)</f>
         <v>24</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
       <c r="K22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="31">
         <f>SUM(B25:B40)</f>
         <v>60</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="32" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1420,14 +1416,16 @@
       <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5">
+        <v>3</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1436,14 +1434,16 @@
       <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1452,14 +1452,14 @@
       <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1468,28 +1468,30 @@
       <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1498,14 +1500,14 @@
       <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1514,12 +1516,14 @@
       <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1528,14 +1532,14 @@
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1544,14 +1548,16 @@
       <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1560,24 +1566,26 @@
       <c r="B36" s="1">
         <v>3</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1586,14 +1594,14 @@
       <c r="B38" s="1">
         <v>4</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1602,12 +1610,14 @@
       <c r="B39" s="1">
         <v>12</v>
       </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1616,199 +1626,268 @@
       <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="6">
-        <f>SUM(C31:E39)</f>
+      <c r="B41" s="11"/>
+      <c r="C41" s="26">
+        <f>SUM(C25:E40)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7">
-        <f>SUM(F31:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="27">
+        <f>SUM(F25:H40)</f>
+        <v>30</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="31">
         <f>SUM(B44:B51)</f>
         <v>44</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="32" t="s">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="30">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="26"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="30">
+      <c r="B46">
         <v>9</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="30">
+      <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="30">
+      <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="30">
+      <c r="B50">
         <v>4</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="30">
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="27">
+      <c r="B52" s="11"/>
+      <c r="C52" s="12">
         <f>SUM(C42:E50)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="28">
+      <c r="D52" s="13"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="13">
         <f>SUM(F42:H50)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="F39:H39"/>
@@ -1829,85 +1908,15 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="F1:H2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Docs/Planning/JournalEtPlanification.xlsx
+++ b/Docs/Planning/JournalEtPlanification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\Docs\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\LAJF\LAJF\Docs\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF834B-020D-4854-89C1-09D00E3259F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0883E43F-E7BD-440C-BF47-E9B371CC02B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>1ère itération</t>
   </si>
@@ -164,13 +164,10 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>repoussé</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Repoussé</t>
   </si>
 </sst>
 </file>
@@ -589,13 +586,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -605,90 +686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:H37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,33 +981,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="21">
         <f>SUM(B3:B10)</f>
         <v>40</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1019,16 +1016,16 @@
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1037,16 +1034,16 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1055,14 +1052,14 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1071,14 +1068,14 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1087,14 +1084,14 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1103,16 +1100,16 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>3</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1121,14 +1118,14 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5">
+      <c r="C9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
         <v>5</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1137,61 +1134,61 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="C10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12">
+      <c r="B11" s="19"/>
+      <c r="C11" s="7">
         <f>SUM(C3:E10)</f>
         <v>20</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13">
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8">
         <f>SUM(F3:H10)</f>
         <v>22</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="21">
         <f>SUM(B14:B20)</f>
         <v>44</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="18" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1200,16 +1197,16 @@
       <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>3</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1218,14 +1215,14 @@
       <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>6</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1234,14 +1231,14 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1250,14 +1247,14 @@
       <c r="B17" s="1">
         <v>8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>8</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1266,14 +1263,14 @@
       <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5">
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <v>8</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1282,16 +1279,16 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4">
         <v>11</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1300,16 +1297,16 @@
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1318,66 +1315,66 @@
       <c r="B21" s="1">
         <v>0</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12">
+      <c r="B22" s="19"/>
+      <c r="C22" s="7">
         <f>SUM(C12:E20)</f>
         <v>25</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="13">
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8">
         <f>SUM(F12:H20)</f>
         <v>24</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
       <c r="K22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="21">
         <f>SUM(B25:B40)</f>
         <v>60</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1386,28 +1383,28 @@
       <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1416,16 +1413,16 @@
       <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5">
+      <c r="C27" s="4">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1434,16 +1431,16 @@
       <c r="B28" s="1">
         <v>5</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5">
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4">
         <v>4</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1452,14 +1449,14 @@
       <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1468,30 +1465,28 @@
       <c r="B30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5">
+      <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1500,14 +1495,14 @@
       <c r="B32" s="1">
         <v>6</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1516,14 +1511,14 @@
       <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="C33" s="6"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
         <v>6</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1532,14 +1527,14 @@
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="C34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1548,16 +1543,16 @@
       <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5">
+      <c r="C35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
         <v>4</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -1566,26 +1561,26 @@
       <c r="B36" s="1">
         <v>3</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1594,14 +1589,14 @@
       <c r="B38" s="1">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
+      <c r="C38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1610,14 +1605,16 @@
       <c r="B39" s="1">
         <v>12</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5">
+      <c r="C39" s="4">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4">
         <v>10</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -1626,59 +1623,59 @@
       <c r="B40" s="1">
         <v>4</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="26">
+      <c r="B41" s="19"/>
+      <c r="C41" s="31">
         <f>SUM(C25:E40)</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="27">
+        <v>33</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="32">
         <f>SUM(F25:H40)</f>
         <v>30</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="29"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="34"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="21">
         <f>SUM(B44:B51)</f>
         <v>44</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1687,23 +1684,23 @@
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1712,12 +1709,12 @@
       <c r="B46">
         <v>9</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1726,12 +1723,12 @@
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1740,12 +1737,12 @@
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1754,12 +1751,12 @@
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1768,12 +1765,12 @@
       <c r="B50">
         <v>4</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1782,115 +1779,36 @@
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12">
+      <c r="B52" s="19"/>
+      <c r="C52" s="7">
         <f>SUM(C42:E50)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="13">
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8">
         <f>SUM(F42:H50)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="15"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:H24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F12:H13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F1:H2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:H49"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:E52"/>
@@ -1915,8 +1833,87 @@
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C1:E2"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:H24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
